--- a/gd/体验反馈/V0.6集体测试说明.xlsx
+++ b/gd/体验反馈/V0.6集体测试说明.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\体验反馈\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="460" windowWidth="32080" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="4095" yWindow="465" windowWidth="32085" windowHeight="19995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="体验流程" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>本次集体测试为里程碑5制作内容的体验，请大家认真体验，发现问题。</t>
     <rPh sb="0" eb="1">
@@ -622,10 +622,6 @@
     <t>50005 50006 50007</t>
   </si>
   <si>
-    <t>40001 40002 40003 40004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tili = 100000      设置活力</t>
     <rPh sb="21" eb="22">
       <t>huo</t>
@@ -739,10 +735,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11001 11002 11003 10005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合成宝石ID</t>
     <rPh sb="0" eb="1">
       <t>he'cheng</t>
@@ -750,10 +742,6 @@
     <rPh sb="2" eb="3">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30001-30005 30007-30011 30013-30017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1316,6 +1304,22 @@
     <rPh sb="20" eb="21">
       <t>de</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001 40002 40003 40004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009 10010 10011 10012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30001-30006 30007-30012 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11001 11002 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1442,17 +1446,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1723,39 +1730,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1763,52 +1770,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1817,17 +1824,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1835,12 +1842,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -1848,7 +1855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -1863,7 +1870,7 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>3</v>
       </c>
@@ -1874,24 +1881,24 @@
         <v>25</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1902,41 +1909,41 @@
         <v>29</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J25" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1944,68 +1951,68 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="6">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C41" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>39</v>
       </c>
@@ -2013,261 +2020,261 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C51" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C55" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C64" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="2" t="s">
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D79" s="6">
         <v>20001</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J83" s="9" t="s">
+      <c r="J90" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C97" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D101" s="6">
         <v>10003</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C104" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/gd/体验反馈/V0.6集体测试说明.xlsx
+++ b/gd/体验反馈/V0.6集体测试说明.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\体验反馈\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/体验反馈/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="465" windowWidth="32085" windowHeight="19995" tabRatio="500"/>
+    <workbookView xWindow="38440" yWindow="1080" windowWidth="32080" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="体验流程" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>本次集体测试为里程碑5制作内容的体验，请大家认真体验，发现问题。</t>
     <rPh sb="0" eb="1">
@@ -86,22 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自由体验游戏功能</t>
-    <rPh sb="0" eb="1">
-      <t>zi'you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ti'yan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'xi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gon'neng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>注意：</t>
     <rPh sb="0" eb="1">
       <t>zhu'yi</t>
@@ -154,13 +138,6 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>bang'zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <rPh sb="0" eb="1">
-      <t>er</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,51 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>体验副本选择，进入战斗流程</t>
-    <rPh sb="0" eb="1">
-      <t>ti'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jin'ru</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>liu'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验战斗过程</t>
-    <rPh sb="0" eb="1">
-      <t>ti'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guo'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验功能：</t>
-    <rPh sb="0" eb="1">
-      <t>ti'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'neng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
@@ -259,33 +191,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宠物图鉴（不包括掉落指引）</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tu'jian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bao'kuo</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi'yin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>背包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'bao</t>
     </rPh>
@@ -302,28 +208,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝箱</t>
+    <t>宝箱ID</t>
     <rPh sb="0" eb="1">
       <t>bao'xiang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝箱ID</t>
-    <rPh sb="0" eb="1">
-      <t>bao'xiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>钥匙ID</t>
-    <rPh sb="0" eb="1">
-      <t>yao'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙</t>
     <rPh sb="0" eb="1">
       <t>yao'shi</t>
     </rPh>
@@ -417,65 +309,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>bao'xiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石名字没配多语言，影响测试？修改一下</t>
-    <rPh sb="0" eb="1">
-      <t>bao'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'zi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>duo'yu'yuan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yu'yan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ying'xiang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yi'xai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划配置，包括图标、名称、tips等属性</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bao'kuo</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tu'b</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ming'cheng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shu'xing</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1030,7 +863,254 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>副本选择，掉落信息，难度选择（开宝箱功能未完成）</t>
+    <t>阵容选择界面布局</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物上阵，下阵</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'zhen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia'zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡单次，10次。扫荡券不足购买的情况</t>
+    <rPh sb="0" eb="1">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu'zu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力不足的情况</t>
+    <rPh sb="0" eb="1">
+      <t>ti'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数不足的情况</t>
+    <rPh sb="0" eb="1">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券ID：</t>
+    <rPh sb="0" eb="1">
+      <t>sao'dang'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001 40002 40003 40004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009 10010 10011 10012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30001-30006 30007-30012 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11001 11002 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石ID</t>
+    <rPh sb="0" eb="1">
+      <t>bao'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料ID</t>
+    <rPh sb="0" eb="1">
+      <t>cai'liao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：请勿分解系统赠送的对局测试用的10级宠物，否则会影响对局测试</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zeng'song</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fou'ze</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ying'xiang</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备活动</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pang'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'chong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用已经创建好的账号进行登录，账号下有5个玩家怪可以供大家使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号为各自名称全拼+151208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要体验的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.照妖镜样式以及能量功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.大招整体表现（使用时间，间隔，幕布表现，特效表现等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.弱点提示信息（boss局），着重看下是否能够有时间看清楚提示信息，以及现有提示信息的表现形式是否满足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有两个副本需要大家体验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第一个副本（小怪+小boss）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第二个副本（小怪+大boss）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了大家能充分体验对局中的内容，请大家使用中文版本进行体验哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择，掉落信息，难度选择</t>
     <rPh sb="0" eb="1">
       <t>fu'b</t>
     </rPh>
@@ -1049,277 +1129,31 @@
     <rPh sb="12" eb="13">
       <t>xuan'ze</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>kai'bao'xiang</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能需要用到GM指令：</t>
-  </si>
-  <si>
-    <t>lv = 30            设置玩家等级</t>
-  </si>
-  <si>
-    <t>50002 50003 50004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验药：</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jing'yan'yao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容选择界面布局</t>
-    <rPh sb="0" eb="1">
-      <t>zhen'rong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xuan'ze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弱点展现形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.集火操作方式</t>
+    <rPh sb="2" eb="3">
+      <t>ji'huo</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>jie'mian</t>
+      <t>cao'zuo</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>bu'ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物上阵，下阵</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'zhen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xia'zhen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本开启等级是否需要重新配置</t>
-    <rPh sb="0" eb="1">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>deng'ji</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chong'xin</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>pei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡单次，10次。扫荡券不足购买的情况</t>
-    <rPh sb="0" eb="1">
-      <t>sao'dang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dan'ci</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>sao'dang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>quan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu'zu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gou'mai</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qing'k</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力不足的情况</t>
-    <rPh sb="0" eb="1">
-      <t>ti'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qing'k</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数不足的情况</t>
-    <rPh sb="0" eb="1">
-      <t>ci'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qing'k</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难本配置</t>
-    <rPh sb="0" eb="1">
-      <t>kun'nan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ben</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他辅助道具：</t>
-    <rPh sb="0" eb="1">
-      <t>qi't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'zhu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dao'ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡券ID：</t>
-    <rPh sb="0" eb="1">
-      <t>sao'dang'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待胖子补充</t>
-    <rPh sb="0" eb="1">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pang'zi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'chong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老李</t>
-    <rPh sb="0" eb="1">
-      <t>lao'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改副本可打次数？还是有了困难本改困难本的？？</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>da</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ci'shu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hai'sh</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>you</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>l</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kun'nan'ben</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>kun'nan'ben</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40001 40002 40003 40004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10009 10010 10011 10012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">30001-30006 30007-30012 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">11001 11002 </t>
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.对局切换样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.整体对局难度（小boss大概为中前期的难度，大boss为较为中后期的难度）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,8 +1220,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,18 +1237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,16 +1269,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1728,32 +1558,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1762,520 +1592,539 @@
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="6">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="C9" s="2" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="D11" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="D62" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E23" s="2" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="9" t="s">
+    </row>
+    <row r="106" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C60" s="2" t="s">
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C61" s="2" t="s">
+      <c r="D111" s="6">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C65" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C66" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C67" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B73" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B74" s="3"/>
-      <c r="C74" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C77" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="6">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C80" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C91" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C100" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C101" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D101" s="6">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C104" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>69</v>
-      </c>
+    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/体验反馈/V0.6集体测试说明.xlsx
+++ b/gd/体验反馈/V0.6集体测试说明.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/体验反馈/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="1080" windowWidth="32080" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="体验流程" sheetId="1" r:id="rId1"/>
+    <sheet name="账号信息" sheetId="2" r:id="rId2"/>
+    <sheet name="对局外" sheetId="3" r:id="rId3"/>
+    <sheet name="对局相关" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="383">
   <si>
     <t>本次集体测试为里程碑5制作内容的体验，请大家认真体验，发现问题。</t>
     <rPh sb="0" eb="1">
@@ -1070,10 +1068,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账号为各自名称全拼+151208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>需要体验的内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1103,10 +1097,6 @@
   </si>
   <si>
     <t>第一章第二个副本（小怪+大boss）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了大家能充分体验对局中的内容，请大家使用中文版本进行体验哈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1154,6 +1144,2386 @@
   </si>
   <si>
     <t>7.整体对局难度（小boss大概为中前期的难度，大boss为较为中后期的难度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了大家能充分体验对局中的内容，除最后一个大boss的对局请大家使用中文版本进行体验哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个副本请大家使用中文版本和英文版本分别体验一次，看下两种弱点提示的表达方式哪一种更适合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt151215</t>
+  </si>
+  <si>
+    <t>xiaozhen151215</t>
+  </si>
+  <si>
+    <t>tusang151215</t>
+  </si>
+  <si>
+    <t>xiaofei151215</t>
+  </si>
+  <si>
+    <t>laoli151215</t>
+  </si>
+  <si>
+    <t>weifang151215</t>
+  </si>
+  <si>
+    <t>shuaishuai151215</t>
+  </si>
+  <si>
+    <t>baiye151215</t>
+  </si>
+  <si>
+    <t>leishen151215</t>
+  </si>
+  <si>
+    <t>zz151215</t>
+  </si>
+  <si>
+    <t>yunxiang151215</t>
+  </si>
+  <si>
+    <t>shishu151215</t>
+  </si>
+  <si>
+    <t>tiema151215</t>
+  </si>
+  <si>
+    <t>xiaolong151215</t>
+  </si>
+  <si>
+    <t>fanye151215</t>
+  </si>
+  <si>
+    <t>luoyang151215</t>
+  </si>
+  <si>
+    <t>zhangyang151215</t>
+  </si>
+  <si>
+    <t>xiaoxing151215</t>
+  </si>
+  <si>
+    <t>mumu151215</t>
+  </si>
+  <si>
+    <t>xueji151215</t>
+  </si>
+  <si>
+    <t>账号为各自姓名全拼+151215 可以查看账号信息分页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进宠物界面卡顿了很久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率在我这里看有点宽 和之前设想的不太一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖胖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片和装备的tips不统一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米4发热严重，用温测软件测，CPU平均温度65℃-70℃，对局温度76℃-87℃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开宠物界面确实是卡顿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴未收集但是碎片够了的有蒙板感觉比较别扭，玩家可能以为不能点击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片旁边应该给个提示吧告诉这是万能碎片吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石合成，待上材料的位置最好有一个效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.1个多小时，设备没电了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴中怪物的信息界面，滑动查看技能图标的时候，模型也会跟随变换角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖胖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴中怪物一直保持待机动作，有点点呆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片的勾选有点难点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经可以召唤的怪（碎片足够）是不是给一些提示？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤后的宠物只有个动作，没有体验到已经获得宠物的喜悦感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次召唤后都要勾选万能碎片，感觉有点繁琐，可以是当前界面保持勾选状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴的宠物信息界面，左下方宠物分页下面的“[合成]：宝石合成”文字是啥意思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴的宠物信息界面，各个宠物的敏感度不一致，凯瑞斯显示不清楚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成、分解界面左上角的页签的选中状态是不是弄反了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备的等级限制0是不是换成无等级限制或者干脆不显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面的道具建议点击整个格子都会显示tips</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包中白色品质的物品名称 看不清（和底有点靠色）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功的界面有点点苍白（以为法阵会动，实际是直接开宝箱了）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤画面太平淡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片太难点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物召唤界面左下角像im，莫名其妙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按tips的时间有点久，背包内购买钥匙长按也有点久才反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡顿情况较严重包括对局内，唤出道具tips，扫荡展示</t>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI聊天开启时会挡半边，但是另半边大招仍可使用，倒是释放大招聊天UI会跟着进入大招模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些IM提示会显示一行零1个单词，稍微有些长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包页签的选中状态是不是反了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示分解出的IM提示第一个被第二个瞬间替换了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多小的图标按钮可以加大 点击区域 方便点击 减少出现点击几次没反应的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（是开启困难副本的提示）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开宝箱画面太平淡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面品质文字太花太丑了</t>
+    <rPh sb="0" eb="1">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tai'chou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售道具数量选择框在左侧时，按增加的数量选择按钮数字被左手挡住，在右侧时，按减少的数量选择按钮被右手挡住</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo'ce</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>an</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shu'zi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zuo'shou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dang'zhu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>you'ce</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>an</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>you'shou</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>dang'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售成功后看不到金币变化也没提示</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kan'bu'dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴界面全是白边框的宠物头像，毫无吸引力。后期没有直接召唤出来是高品质的宠物么</t>
+    <rPh sb="0" eb="1">
+      <t>tu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>quan'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bai'se</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'kuang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tou'xiang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hao'wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xi'yin'li</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hou'qi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhao'huan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gao'pin'zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>de</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>me</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴界面宠物稀有度体验也不明显，宠物差异无法直观看出</t>
+    <rPh sb="0" eb="1">
+      <t>tu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'you'du</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ming'xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cha'yi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wu'fa</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi'guan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>kan'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴界面未获得过的宠物灰色遮罩看起来像不能点</t>
+    <rPh sb="0" eb="1">
+      <t>tu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui'se</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhe'zhao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kan'qi'lai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bu'neng'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤成功后没有明显的感受</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gan'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换宠物有时比较卡</t>
+    <rPh sb="0" eb="1">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ka</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡顿问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成界面材料黑底看不出来有框，五星背景太亮，上面浅色字带描边，整体看起来都好花</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'liao'kuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kan'bu'chu'lai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kuang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu'xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tai'liang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang'mian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qian'se</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>miao'bian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zheng'ti</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>kan'qi'lai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反而合成时禁止放材料的灰色背景框比较能看清</t>
+    <rPh sb="0" eb="1">
+      <t>fan'er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'cheng'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai'liao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui'se</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kuang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kan'qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成结果界面不能看道具tips，也没有道具名字</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ming'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成、分解界面左侧右侧图标为啥大小不一样？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成除了道具外没有任何消耗了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解界面装备列表里的等级限制是要去掉的么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解成功后有两条连续的IM提示，第一条很快被顶掉了，合并成一条？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁问的</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>问的啥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>咋解决</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局相关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜按出来之后，注意力主要集中在新出现的照妖镜上，不能再去注意右侧照妖镜图标的能量减少进度条</t>
+  </si>
+  <si>
+    <t>照妖镜能量耗尽提示信息停留时间略短，并且场景太花花，字颜色不清晰，提示信息看不清楚</t>
+  </si>
+  <si>
+    <t>铁马</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 照妖镜自身的圈和照出来弱点时的闪光效果太弱，看起来像没反应，不知道发生了什么。左边图标变化完全注意不到。尤其是一进战斗小怪时照妖镜就有提示，结果什么都照不到没有任何提示</t>
+  </si>
+  <si>
+    <t>小怪局不显示照妖镜？</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.小怪局照妖镜一直抖动 用了又没反应，能量满了才抖动，感觉像提示抖了才能用，其实有能量就能用</t>
+  </si>
+  <si>
+    <t>同4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.照妖镜反馈效果太弱，照了感觉没反应</t>
+  </si>
+  <si>
+    <t>3.照妖镜使用时间很急促 完全顾不上看右边的弱点提示</t>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.照妖镜看着像个勺子，点出来是个亮圈，不搭</t>
+  </si>
+  <si>
+    <t>3.照妖镜总在右下角晃悠，看着很烦</t>
+  </si>
+  <si>
+    <t>5.小怪局照妖镜根本没用，还在右下角晃晃，特别碍事</t>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 照妖镜和弱点用的不是太清楚</t>
+  </si>
+  <si>
+    <t>木木</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速后，右下角照妖镜转的好闹心啊</t>
+    <rPh sb="0" eb="1">
+      <t>jia'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xia'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhao'yao'jing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nao'xin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>a</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整动画？</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪局不应该有照妖镜，没用</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'ying'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhao'yao'jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mei'yon'm'g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜UI图标不好看</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大镜寻找到弱点的时候，最好画面中间给个响应文字提示会比较明显</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大镜消失特效尺寸是不是有些大，感觉特别突然</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪的时候，放大镜是不是给收回/停止 可以用的时候在出现/播放</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.照妖镜攒满时会动，注意力会不自觉的关注（可能会误解为不攒满没法用）</t>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 如过小怪对局照妖镜没用不如没有，现在对新手干扰大，只有妖气强的时候出现比较好</t>
+  </si>
+  <si>
+    <t>师叔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪局的照妖镜满时，来回闪，也没什么用处，有点抢眼</t>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎眩晕时，胸部弱点点不到</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的碰撞核还是需要仔细调整下</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点特效样式都比较接近，而且是金色，感觉不太明显</t>
+    <rPh sb="0" eb="1">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>er'q</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'se</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu'tai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ming'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些弱点很难点到，感觉弱点的玩法在于寻找而不是点击的困难，是否可直接点击左侧弱点图标进行选中</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定后的弱点特效很不明显</t>
+  </si>
+  <si>
+    <t>同22</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点提示</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.弱点提示正好被手指挡住 建议显示在中间</t>
+  </si>
+  <si>
+    <t>tips位置调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.阿穆特左边两个图标，显示的内容不一样，一个带名字，另一个不带，为啥显示不一样</t>
+  </si>
+  <si>
+    <t>手指点击弱点icon，tips有些遮挡，</t>
+  </si>
+  <si>
+    <t>同25</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.弱点tips容易被手挡住,tips格式有点奇怪</t>
+  </si>
+  <si>
+    <t>找弱点过程比较紧张：美杜莎关一直放AOE，如果看tips再照就晚了。照完集火才能过，但其实没时间看tips的。</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'zhang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'du'sha</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>l</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ji'huo</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>cai'neng</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>qi'shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>mei'shi'jian</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弱点图标，弱点本身的交互反应不太明显</t>
+  </si>
+  <si>
+    <t>集火</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 集火标志不明显，是否可以考虑这样修改：集火标志改为在怪物脚下的光圈，类似魔灵召唤。点击怪物任意位置则将集火该怪物。如该怪物身上有弱点， 则会按照照妖镜找到弱点的顺序依次攻击，照妖镜找到弱点的顺序会显示在左方弱点UI处</t>
+  </si>
+  <si>
+    <t>17.手机上集火好难点中</t>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 在前一个怪物释放大招时，无法点击其他怪物的大招，希望能点击其他怪物大招后直接进入后续队列</t>
+  </si>
+  <si>
+    <t>7.不让放大招的im提示太长了，一行多，并且没等开完就消失了</t>
+  </si>
+  <si>
+    <t>8.经试验，对局进去时候，有大招就放，最后打了7,8分钟，然后死的位置早了，结论是大招放的越频繁，对局打的越慢，并且越打不过去</t>
+  </si>
+  <si>
+    <t>12.哈皮大招放了没效果</t>
+  </si>
+  <si>
+    <t>打断</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.蛙鬼大招伤害和表现都打过来了，然后才播动作，不搭</t>
+  </si>
+  <si>
+    <t>调整表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.怪物防御的时候，点大招蓄气，怪物会保持防御动作蓄气，看着好奇怪</t>
+  </si>
+  <si>
+    <t>云翔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招出幕布和目标身上出效果之间有几秒延迟。会有点衔接断层的感觉。</t>
+  </si>
+  <si>
+    <t>2. 战斗中大招频率太高  但是不关注不用大招 又打不过去</t>
+  </si>
+  <si>
+    <t>大招幕布像策略战争游戏的</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'lue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan'zheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕布效果调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>放完手动大招后，字还要冒很久才播完</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ho</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hai'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hen'jiu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落的宝箱，点击后反馈较慢，特效时间比较短，收获感不强</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时的，在调整吧</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 森林地图地面颜色和整体差不多，缺少层次</t>
+  </si>
+  <si>
+    <t>5.美杜莎完全打不过 只能靠复活</t>
+  </si>
+  <si>
+    <t>6. 打不过美杜莎，复活以后起来就死了，流失了</t>
+  </si>
+  <si>
+    <t>同46</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 美杜莎身边的光球是什么，</t>
+  </si>
+  <si>
+    <t>技能特效（算bug吧）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 上阵后无法查看属性、技能分不清哪个是大招</t>
+  </si>
+  <si>
+    <t>5 对局中无法查看己方技能说明</t>
+  </si>
+  <si>
+    <t>6 希望能查看己方buff效果</t>
+  </si>
+  <si>
+    <t>7 希望boss能显示技能图标和CD</t>
+  </si>
+  <si>
+    <t>4 进入战斗感觉很奇怪，怪物站好了在等开始，希望是战斗小关提示的消失的同时怪物站位完成或入场完成</t>
+  </si>
+  <si>
+    <t>8 战斗浮动字希望是一个初速较快，减速上浮的过程，匀速上升让人感觉整体节奏很缓慢</t>
+  </si>
+  <si>
+    <t>10 怪物蓄力时无法判断将要攻击的目标（位置），导致无法进行一些策略操作，如换怪等</t>
+  </si>
+  <si>
+    <t>12 有时会出现我方怪物空血但不死的情况，发生了两次，可能正好是一丝血，但是感受不好，希望在血很少时也能有一点血条显示，只有真正死亡时血条为空。并且是否可以加入在血很少的时候血条有红色闪动效果以加强紧迫感</t>
+  </si>
+  <si>
+    <t>10.场景内只有掉落物一种互动元素，感觉太乏味了，加点叶子飘呀飘啥的也挺好的，像炉石那种就更好了</t>
+  </si>
+  <si>
+    <t>11.打森林里的怪竟然会掉钱，为啥</t>
+  </si>
+  <si>
+    <t>14.boss局，龙宫童子哈皮凯瑞斯同时上阵，龙宫童子有大招就放，别人不放大招，最后蛙鬼上场后，刚好终结boss，全程不需要使用照妖镜</t>
+  </si>
+  <si>
+    <t>16.美杜莎打了4.5局输了，慢吞吞的，快睡着了，这游戏好无聊呀</t>
+  </si>
+  <si>
+    <t>19.看弱点提示的时候，被美杜莎突突死了</t>
+  </si>
+  <si>
+    <t>看提示的时间不够，自动弹出？</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.我都是10级白怪，而对面都是10级绿加1和10级紫加2，差距这么大，没有跨级打怪的需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 美杜莎狂暴没提示 </t>
+  </si>
+  <si>
+    <t>17. 还未通关过的boss战是否自动回复1倍速比较好，前边的战斗1倍速慢，但是到了boss1倍速还没来得及调就挨打了</t>
+  </si>
+  <si>
+    <t>18. 有些加血技能满血了还放，明明敌人只剩一丝血，感觉比较弱智</t>
+  </si>
+  <si>
+    <t>美杜莎碰撞盒有问题吧，好难点</t>
+    <rPh sb="0" eb="1">
+      <t>mei'du'sha</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>peng'zhuang'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>b</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hao'nan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整碰撞核</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活后为啥不是上首发阵容？</t>
+    <rPh sb="0" eb="1">
+      <t>fu'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'sha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhen'rong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花魄身上着火的特效比较诡异</t>
+    <rPh sb="0" eb="1">
+      <t>hua'po</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen'shang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhao'huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss局开局UI的boss头像，脸和角看起来是分开显示的</t>
+    <rPh sb="4" eb="5">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tou'xiang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kan'qi'lai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fen'kai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xian's</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒字感觉比较乱，有两行字的，有伤害数字，还有不同颜色，节奏和分组感觉比较乱。字多的情况下更乱</t>
+    <rPh sb="0" eb="1">
+      <t>mao'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liang'hang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu'zi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hai'you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yan'se</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jie'zou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>he</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fen'zu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>geng'luan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈皮碰撞盒太大，点boss会点到哈皮</t>
+    <rPh sb="0" eb="1">
+      <t>ha'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>peng'zhuang'te</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tai'da</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ha'pi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎被眩晕时，大招点不到胸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一只怪活的，死怪以后活的怪不下来，最终导致对局卡死</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算时出现集火图标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个应该是替代的资源</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物受击时经常出现卡顿</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.游戏战斗体验方面，关卡做的紧张刺激感觉不错，释放大招的时候 没有明确的告诉我什么时候能 放出来，我本身是知道是根据回合来的，但是在美杜莎boss战斗过程中基本就是 有啥点啥了， 打死后感觉玩家的策略没有立刻得到反馈（比如我知道他要扫我了，我点加血了，没加上，下一次我点之前我不知道啥时候加合适所以我就有啥放啥，所以不知道是不是 设计的本意是有啥放啥）。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.不知道弱点选了是否能取消，例如没有蛇头了 选了胸口  我不想打弱点了能取消不不，我点了多次貌似没取消</t>
+  </si>
+  <si>
+    <t>很多小的图标按钮可以加大 点击区域 方便点击 减少出现点击几次没反应的情况</t>
+  </si>
+  <si>
+    <t>npc血条的等级部分尺寸有些大</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条需要调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色脚下没有投影感觉很飘，很单薄，建议可以加一点点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点时只有上半身才有吗？有时候退下部分可能会被自己中间的角色脑袋挡住</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动放技能一会就会卡一下</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标特效太大了播放太快，并且3倍速下，汇聚成一团，不够美观</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整特效</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff图标不够明显</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换角色特效不是很好看，可以考虑换成和出现一样级别的特效</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.怪物身上的弱点不明显且容易穿模型</t>
+  </si>
+  <si>
+    <t>5.1倍速有点慢，2倍速有点快</t>
+  </si>
+  <si>
+    <t>6.Boss对局内内容过多，有点手忙脚乱</t>
+  </si>
+  <si>
+    <t>7.boss弱点比较难点</t>
+  </si>
+  <si>
+    <t>8.UI聊天开启时会挡半边，但是另半边大招仍可使用，倒是释放大招聊天UI会跟着进入大招模式</t>
+  </si>
+  <si>
+    <t>切对局的大紫片与对局不太和谐</t>
+  </si>
+  <si>
+    <t>切对局的云看起来不够柔</t>
+  </si>
+  <si>
+    <t>阵容选择</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看敌方和己方宠物信息的时间略长，建议在短一些</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整响应时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 阵容选择界面弹出窗口操作方式、样式不统一，长按操作可能意识不到，因为没有长按的按钮UI变化</t>
+  </si>
+  <si>
+    <t>1 点击怪物头像出现tip框的时间较长，建议缩短</t>
+  </si>
+  <si>
+    <t>同94</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 技能描述里没有大招和普通招式的区别，包括图标框和说明</t>
+  </si>
+  <si>
+    <t>3 我方宠物如果不查看详细信息无法判断属性，而怪物的颜色外框让我开始误以为是两个木属性和一个暗属性的怪</t>
+  </si>
+  <si>
+    <t>补充两条，大招的释放频率有点高，导致关注点都在当前的大招上了， 会比较少能去关心照妖镜和换怪的策略</t>
+  </si>
+  <si>
+    <t>此版本为了体验打断</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.返回阵容选择界面后，显示startbattle按钮，点了之后，10s才有反应，界面变为闪电30</t>
+  </si>
+  <si>
+    <t>好多界面都有这个刷新问题，应该考虑解决下</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.阵容选择界面上提示请按正确的顺序，不知道啥叫正确的顺序</t>
+  </si>
+  <si>
+    <t>22.阵容选择界面点击对面怪的头像没有tips，但是点击掉落图标有tips，同样是图标，为啥一个有一个没有</t>
+  </si>
+  <si>
+    <t>长按</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.阵容选择界面，加号上有外圈高亮提示，但是点加号没反应，很奇怪</t>
+  </si>
+  <si>
+    <t>每次打开阵容选择界面才加载数据，感受不好</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bu'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同100</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物阵容有空位时，提示“按正确的顺序出战”指引不太足吧</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong'wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zheng'que</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shun'xu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>chu'zhan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi'yin</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu'tai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zu'gou</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠在一起了</t>
+    <rPh sb="0" eb="1">
+      <t>die'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整下位置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标第一次打开没有外框，长按一次查看tips后出现外框</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按出tips的长按时间过长，建议缩短点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 扫荡奖励界面黑色黄色分界太丑</t>
+  </si>
+  <si>
+    <t>14.扫荡界面两条横杠稍微有点奇怪。。。（建议）</t>
+  </si>
+  <si>
+    <t>困难本扫荡后剩余次数不刷新，需要重登录</t>
+    <rPh sb="0" eb="1">
+      <t>kun'nan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sao'dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu's</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shua'xin</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chong'deng'lu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通本为什么有999的次数限制，给人感受很奇怪</t>
+    <rPh sb="0" eb="1">
+      <t>pu't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'shen'me</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gei'ren</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gan'shou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余挑战次数不足时，显示【重置】，看不出来是重置什么</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'zu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kan'bu'chu'lai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shen'me</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节掉落</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.点dropinfo按钮之后弹出掉落列表，是说这一章每一关都掉这两个道具还是什么，不太懂</t>
+  </si>
+  <si>
+    <t>掉落信息为啥不能查看tips</t>
+    <rPh sb="0" eb="1">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'sha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha'kan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力值相关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 体力已达到上限后建议不要显示使用按钮了</t>
+  </si>
+  <si>
+    <t>活力恢复提示里的冒号位置排版显示有些奇怪</t>
+    <rPh sb="0" eb="1">
+      <t>huo'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao'hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai'ban</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you'xie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有活力药时，每次只能买一个吃一个操作比较麻烦</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ma'fan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面体力和金币、钻石为啥不在一起，而且大小也不统一</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin'bi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei'sha</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>er'q</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu'tong'yi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tong'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓手机没有锁屏旋转</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.龙宫童子是一个大紫片，太丑了</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进了副本选择界面，帧数降一半打开副本选择界面列表，帧数又降了三分之一</t>
+  </si>
+  <si>
+    <t>开了3倍速，对局帧数多次降到3左右，没法玩了，我流失了</t>
+  </si>
+  <si>
+    <t>ios8运行游戏会比较卡，ios7感觉良好</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小米4发热严重，用温测软件测，CPU平均温度65℃-70℃，对局温度76℃-87℃，</t>
+  </si>
+  <si>
+    <t>6.多个怪触发特效的时候，帧数骤减，60多减到30多，要是对面聚气己方aoe的时候掉到10几帧</t>
+  </si>
+  <si>
+    <t>安卓手机龙宫童子贴图缺失</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓手机在使用点、按住等操作是反映较慢，较难识别</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 龙宫童子大招卡，5s手机</t>
+  </si>
+  <si>
+    <t>1. 切换画面时有闪屏（loading的时候闪屏）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面刷新时，偶尔会遇到文字显示不全（字显示一半）之后刷新正常的情况</t>
+    <rPh sb="0" eb="1">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shua'xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ou'er</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu'dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'quan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shua'xin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜找出弱点后 没有提示如何进行攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜快要离开的反馈加强；照出弱点后照妖镜直接消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整特效；换成UI特效；特效挂点调整到表面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问问帅帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定成功的特效更明显一点；弱点提示变换的时候增加个特效？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满了之后动一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是不能通过左侧图标点击，调整碰撞核；弱点提示图标修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>干掉名字；未照出显示问号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行体现不明显</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑序列，与zz勾兑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问下云翔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打断除了冒字外没其他表现，没有成就感；红字特别丑</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>da'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>biao'xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cheng'jiu'guan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑能否加受击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给帆爷说下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示内容不够？加强表现提示；考虑照妖镜暂停（之前不能暂停，是因为啥,与zz讨论）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性通过血条底图解决，问小珍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改，太临时了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +3531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,8 +3596,47 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+    </font>
+    <font>
+      <sz val="17.600000000000001"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,13 +3649,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1257,7 +3687,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1274,13 +3704,48 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1293,6 +3758,277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>212480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1591733</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>61873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="37607630"/>
+          <a:ext cx="1591733" cy="478043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2923820</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>134722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838449" y="32566708"/>
+          <a:ext cx="2828571" cy="734064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82548</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1896717</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>161869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2825748" y="33602958"/>
+          <a:ext cx="1814169" cy="1201336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2024343</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>19725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3395868</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>175460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4767543" y="33614400"/>
+          <a:ext cx="1371525" cy="1203485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>4895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1746330</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>111826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2759766" y="20883695"/>
+          <a:ext cx="1729764" cy="983231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1863586</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3596223</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4606786" y="20887082"/>
+          <a:ext cx="1732637" cy="991851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2385391</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>29715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="22193250"/>
+          <a:ext cx="2385391" cy="1344165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,7 +4074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,7 +4109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1550,7 +4286,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1558,41 +4294,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -1601,17 +4337,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="20">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="20">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -1619,193 +4355,196 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="17">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="17">
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17">
       <c r="B12" s="3"/>
       <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17">
       <c r="B13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17">
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
       <c r="B16" s="3"/>
       <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17">
       <c r="B17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17">
       <c r="B18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="17">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17">
       <c r="B21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17">
       <c r="B22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17">
       <c r="B23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17">
       <c r="B24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17">
       <c r="B25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17">
       <c r="B26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17">
       <c r="B27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="17">
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="17">
       <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="17">
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="17">
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="17">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="17">
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="17">
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="17">
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="17">
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="C43" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4">
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4">
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
@@ -1813,12 +4552,12 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="17">
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5">
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -1826,7 +4565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" s="2">
         <v>2</v>
       </c>
@@ -1837,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" s="2">
         <v>3</v>
       </c>
@@ -1848,12 +4587,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="2">
         <v>4</v>
       </c>
@@ -1864,27 +4603,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="C56" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="C60" s="2" t="s">
         <v>28</v>
       </c>
@@ -1892,7 +4631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5">
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +4639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5">
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
@@ -1908,7 +4647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="C63" s="2" t="s">
         <v>65</v>
       </c>
@@ -1916,7 +4655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5">
       <c r="C64" s="2" t="s">
         <v>66</v>
       </c>
@@ -1924,52 +4663,52 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="17">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="C68" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="C70" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="C73" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="C74" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="C75" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
@@ -1977,37 +4716,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="17">
       <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="C86" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="C87" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="C88" s="2" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +4754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="C89" s="2" t="s">
         <v>34</v>
       </c>
@@ -2023,42 +4762,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="C91" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="C92" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="D94" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="C96" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4">
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4">
       <c r="C98" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4">
       <c r="C99" s="2" t="s">
         <v>41</v>
       </c>
@@ -2066,48 +4805,48 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4">
       <c r="D100" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4">
       <c r="D101" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="D102" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" ht="17">
       <c r="B105" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" ht="17">
       <c r="B106" s="3"/>
       <c r="C106" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4">
       <c r="C107" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="C109" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4">
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -2115,7 +4854,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4">
       <c r="C112" s="2" t="s">
         <v>49</v>
       </c>
@@ -2123,11 +4862,2444 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="17">
       <c r="B115" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="M43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="M46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="M52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="M60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="M63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="M66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="M67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="M70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="M73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="M77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="M80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="M83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="M86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="M90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="M93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="M96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>155</v>
+      </c>
+      <c r="M102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>156</v>
+      </c>
+      <c r="M105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="M108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>159</v>
+      </c>
+      <c r="M111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="B116" t="s">
+        <v>107</v>
+      </c>
+      <c r="M116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="M117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="M118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="B119" t="s">
+        <v>164</v>
+      </c>
+      <c r="M119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="M122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="M125" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>113</v>
+      </c>
+      <c r="M128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="B129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+      <c r="M132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="M135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="B136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>152</v>
+      </c>
+      <c r="M139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="10"/>
+    <col min="2" max="4" width="8.7109375" style="16"/>
+    <col min="5" max="5" width="59.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="71.85546875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="20">
+      <c r="B1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="32">
+      <c r="B3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32">
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48">
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32">
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="16">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="16">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="16">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21">
+      <c r="C13" s="16">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="16">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="16">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="C17" s="16">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="C18" s="16">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="16">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="16">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32">
+      <c r="C21" s="16">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A22" s="19"/>
+      <c r="C22" s="20">
+        <v>20</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="16">
+        <v>21</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="16">
+        <v>22</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="32">
+      <c r="C25" s="16">
+        <v>23</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A26" s="19"/>
+      <c r="C26" s="20">
+        <v>24</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="16">
+        <v>25</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33">
+      <c r="C28" s="16">
+        <v>26</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="16">
+        <v>27</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="16">
+        <v>28</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="32">
+      <c r="C31" s="16">
+        <v>29</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A32" s="19"/>
+      <c r="C32" s="20">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="49">
+      <c r="B33" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="16">
+        <v>31</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A34" s="19"/>
+      <c r="C34" s="20">
+        <v>32</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33">
+      <c r="B35" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="16">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" s="16">
+        <v>34</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="32">
+      <c r="C37" s="16">
+        <v>35</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" s="16">
+        <v>36</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" s="16">
+        <v>37</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" s="16">
+        <v>38</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41" s="16">
+        <v>39</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42" s="16">
+        <v>40</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" s="16">
+        <v>41</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21">
+      <c r="C44" s="16">
+        <v>42</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A45" s="19"/>
+      <c r="C45" s="20">
+        <v>43</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="16">
+        <v>44</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21">
+      <c r="C47" s="16">
+        <v>45</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="16">
+        <v>46</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="16">
+        <v>47</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="16">
+        <v>48</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="21">
+      <c r="C51" s="16">
+        <v>49</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="16">
+        <v>50</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="16">
+        <v>51</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="16">
+        <v>52</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="32">
+      <c r="C55" s="16">
+        <v>53</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="32">
+      <c r="C56" s="16">
+        <v>54</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="32">
+      <c r="C57" s="16">
+        <v>55</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="48">
+      <c r="C58" s="16">
+        <v>56</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="32">
+      <c r="C59" s="16">
+        <v>57</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="16">
+        <v>58</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="32">
+      <c r="C61" s="16">
+        <v>59</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="16">
+        <v>60</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="16">
+        <v>61</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="32">
+      <c r="C64" s="16">
+        <v>62</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="16">
+        <v>63</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="32">
+      <c r="C66" s="16">
+        <v>64</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="16">
+        <v>65</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="16">
+        <v>66</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="16">
+        <v>67</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="16">
+        <v>68</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="16">
+        <v>69</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="32">
+      <c r="C72" s="16">
+        <v>70</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" s="16">
+        <v>71</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="16">
+        <v>72</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="16">
+        <v>73</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="E80" s="18"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="16">
+        <v>74</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="E84" s="18"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="E85" s="18"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="E86" s="18"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="16">
+        <v>75</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" ht="80">
+      <c r="C89" s="16">
+        <v>76</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" ht="32">
+      <c r="C90" s="16">
+        <v>77</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="16">
+        <v>78</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="16">
+        <v>79</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="16">
+        <v>80</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" s="16">
+        <v>81</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="C95" s="16">
+        <v>82</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="C96" s="16">
+        <v>83</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="C97" s="16">
+        <v>84</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="16">
+        <v>85</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="C99" s="16">
+        <v>86</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="C100" s="16">
+        <v>87</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="C101" s="16">
+        <v>89</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="16">
+        <v>90</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="1:6" ht="32">
+      <c r="C103" s="16">
+        <v>91</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="C104" s="16">
+        <v>92</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A105" s="19"/>
+      <c r="C105" s="20">
+        <v>93</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="14" customFormat="1">
+      <c r="A106" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="16">
+        <v>94</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="32">
+      <c r="C108" s="16">
+        <v>95</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="C109" s="16">
+        <v>96</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="C110" s="16">
+        <v>97</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="32">
+      <c r="C111" s="16">
+        <v>98</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="32">
+      <c r="C112" s="16">
+        <v>99</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" ht="32">
+      <c r="C113" s="16">
+        <v>100</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" s="16">
+        <v>101</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="32">
+      <c r="C115" s="16">
+        <v>102</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="C116" s="16">
+        <v>103</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="C117" s="16">
+        <v>104</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="C118" s="16">
+        <v>105</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="C119" s="16">
+        <v>106</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="C124" s="16">
+        <v>107</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="C131" s="16">
+        <v>108</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="B132" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="16">
+        <v>109</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="C133" s="16">
+        <v>110</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="C134" s="16">
+        <v>111</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="C135" s="16">
+        <v>112</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A136" s="19"/>
+      <c r="C136" s="20">
+        <v>113</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="32">
+      <c r="B137" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C137" s="16">
+        <v>114</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="C138" s="16">
+        <v>115</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A139" s="19"/>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="1:6" s="14" customFormat="1">
+      <c r="A140" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E140" s="15"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="C141" s="16">
+        <v>116</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="C142" s="16">
+        <v>117</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="C146" s="16">
+        <v>118</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="A147" s="19"/>
+      <c r="C147" s="20">
+        <v>119</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="14" customFormat="1">
+      <c r="A148" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E148" s="15"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C149" s="16">
+        <v>120</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="C150" s="16">
+        <v>121</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="C151" s="16">
+        <v>122</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="E152" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="E153" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="C154" s="16">
+        <v>123</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="32">
+      <c r="C155" s="16">
+        <v>124</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="C156" s="16">
+        <v>125</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="C157" s="16">
+        <v>126</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="C158" s="16">
+        <v>127</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="C159" s="16">
+        <v>128</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="C161" s="16">
+        <v>129</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="23" customFormat="1">
+      <c r="A162" s="22"/>
+      <c r="E162" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gd/体验反馈/V0.6集体测试说明.xlsx
+++ b/gd/体验反馈/V0.6集体测试说明.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/体验反馈/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4220" yWindow="2080" windowWidth="27380" windowHeight="16680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="体验流程" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="427">
   <si>
     <t>本次集体测试为里程碑5制作内容的体验，请大家认真体验，发现问题。</t>
     <rPh sb="0" eb="1">
@@ -3525,6 +3530,138 @@
   <si>
     <t>改</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术考虑一个别的样式， 可能是外框不亮，icon亮， 或者相反</t>
+  </si>
+  <si>
+    <t>“万能碎片。。。”介绍跟碎片图片靠近， 另，文案为“万能碎片可以取代40%的宠物碎片”</t>
+  </si>
+  <si>
+    <t>未来考虑有像“梅露可物语”类似功能， 暂时不做</t>
+  </si>
+  <si>
+    <t>UI排版跟Q2一并考虑</t>
+  </si>
+  <si>
+    <t>UI考虑“召唤”按键“亮起来”</t>
+  </si>
+  <si>
+    <t>美术考虑好点效果， 另， 镜头穿帮了（水丑）</t>
+  </si>
+  <si>
+    <t>具体配置后再修改</t>
+  </si>
+  <si>
+    <t>路径样式得再考虑</t>
+  </si>
+  <si>
+    <t>策划考虑</t>
+  </si>
+  <si>
+    <t>同问题1</t>
+  </si>
+  <si>
+    <t>是的 （提Bug）</t>
+  </si>
+  <si>
+    <t>美术加效果</t>
+  </si>
+  <si>
+    <t>样式改变， 至少加个框</t>
+  </si>
+  <si>
+    <t>策划加功能， 加前确认一下是否会按错</t>
+  </si>
+  <si>
+    <t>美术考虑一下样式</t>
+  </si>
+  <si>
+    <t>策划商量</t>
+  </si>
+  <si>
+    <t>策划提需求</t>
+  </si>
+  <si>
+    <t>美术考虑改颜色</t>
+  </si>
+  <si>
+    <t>是的， 提bug</t>
+  </si>
+  <si>
+    <t>美术改样式</t>
+  </si>
+  <si>
+    <t>美术考虑， 实际上可以用一种颜色</t>
+  </si>
+  <si>
+    <t>未来改版面（跟宠物一样）</t>
+  </si>
+  <si>
+    <t>可考虑申请工伤</t>
+  </si>
+  <si>
+    <t>无解</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>感觉现在这样好。。。。</t>
+  </si>
+  <si>
+    <t>跟问题6一样</t>
+  </si>
+  <si>
+    <t>应该是所有长按tips都太长时间。。。。看看怎么样一致改。</t>
+  </si>
+  <si>
+    <t>不管</t>
+  </si>
+  <si>
+    <t>万能碎片改样式</t>
+  </si>
+  <si>
+    <t>（应该指列表）</t>
+  </si>
+  <si>
+    <t>也许改字色</t>
+  </si>
+  <si>
+    <t>他自己忘了</t>
+  </si>
+  <si>
+    <t>（可能有些框、背景）</t>
+  </si>
+  <si>
+    <t>铁马也考虑一下颜色</t>
+  </si>
+  <si>
+    <t>就是稀有度要不要显示的问题</t>
+  </si>
+  <si>
+    <t>同 3</t>
+  </si>
+  <si>
+    <t>（考虑都用一个名字颜色？）</t>
+  </si>
+  <si>
+    <t>*雪姬看看其他界面， 一起考虑一下。</t>
+  </si>
+  <si>
+    <t>可能改成中间tips？</t>
+  </si>
+  <si>
+    <t>zhenzhen</t>
+  </si>
+  <si>
+    <t>改文案， 先不动</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3750,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3629,14 +3766,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="17.600000000000001"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3658,6 +3797,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3687,7 +3844,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3739,13 +3896,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4286,7 +4448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4296,39 +4458,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="20">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="20">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -4337,17 +4499,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="20">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -4355,51 +4517,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="D13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="17">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="D16" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17">
+    <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="17">
+    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="2" t="s">
         <v>77</v>
@@ -4408,143 +4570,143 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="17">
+    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="17">
+    <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="17">
+    <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="D21" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="17">
+    <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="17">
+    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="D23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="17">
+    <row r="24" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17">
+    <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="17">
+    <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="D26" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="17">
+    <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="17">
+    <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:7" ht="17">
+    <row r="29" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="17">
+    <row r="30" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:7" ht="17">
+    <row r="31" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="17">
+    <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="17">
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="17">
+    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:4" ht="17">
+    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="17">
+    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="17">
+    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="17">
+    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4552,12 +4714,12 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="17">
+    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -4565,7 +4727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>2</v>
       </c>
@@ -4576,7 +4738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>3</v>
       </c>
@@ -4587,12 +4749,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>4</v>
       </c>
@@ -4603,27 +4765,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
         <v>28</v>
       </c>
@@ -4631,7 +4793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
@@ -4639,7 +4801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
@@ -4647,7 +4809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>65</v>
       </c>
@@ -4655,7 +4817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>66</v>
       </c>
@@ -4663,52 +4825,52 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="17">
+    <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
@@ -4716,37 +4878,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="17">
+    <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>35</v>
       </c>
@@ -4754,7 +4916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
         <v>34</v>
       </c>
@@ -4762,42 +4924,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C92" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D94" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
         <v>41</v>
       </c>
@@ -4805,48 +4967,48 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D100" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D101" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D102" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="17">
+    <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="17">
+    <row r="106" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C109" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -4854,7 +5016,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
         <v>49</v>
       </c>
@@ -4862,18 +5024,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="17">
+    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4885,104 +5042,104 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -4990,30 +5147,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5023,8 +5175,24 @@
       <c r="M2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N2" s="31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="N4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5035,7 +5203,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5046,7 +5219,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5057,7 +5235,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5068,7 +5251,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>142</v>
       </c>
@@ -5076,471 +5259,650 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>129</v>
       </c>
-      <c r="M22" t="s">
+      <c r="G23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="B27" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>140</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="B28" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>163</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>131</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>132</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>133</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>143</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M45" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>12</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>160</v>
-      </c>
-      <c r="M46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>161</v>
       </c>
       <c r="M49" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>391</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="M53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>14</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B57" t="s">
         <v>162</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="10" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>1</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" t="s">
         <v>122</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>2</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B66" t="s">
         <v>134</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M66" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>3</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B70" t="s">
         <v>135</v>
-      </c>
-      <c r="M63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
-        <v>151</v>
-      </c>
-      <c r="M66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-      <c r="M67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
       </c>
       <c r="M70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="M74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="M75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>6</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B83" t="s">
         <v>166</v>
-      </c>
-      <c r="M73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="B74" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
-      <c r="M77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>169</v>
-      </c>
-      <c r="M80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>170</v>
       </c>
       <c r="M83" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="M88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="M92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>170</v>
+      </c>
+      <c r="M96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="35" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>10</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B100" t="s">
         <v>171</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="10" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="A90">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>1</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B105" t="s">
         <v>137</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M105" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>2</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B109" t="s">
         <v>138</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M109" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
-      <c r="A96">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="D111" t="s">
+        <v>422</v>
+      </c>
+      <c r="G111" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>4</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B113" t="s">
         <v>144</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
-      <c r="A99">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>5</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B117" t="s">
         <v>150</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>6</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B121" t="s">
         <v>155</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M121" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
-      <c r="A105">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>7</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B125" t="s">
         <v>156</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M125" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>8</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B129" t="s">
         <v>158</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M129" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>9</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B133" t="s">
         <v>159</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="10" t="s">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>1</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B137" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
-      <c r="B116" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>107</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M138" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="B117" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>115</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M139" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
-      <c r="B118" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>146</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M140" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
-      <c r="B119" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>164</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
-      <c r="A122">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>2</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B145" t="s">
         <v>109</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M145" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>3</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B149" t="s">
         <v>112</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M149" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
-      <c r="A128">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>4</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B153" t="s">
         <v>113</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M153" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
-      <c r="B129" t="s">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
-      <c r="A132">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>5</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B158" t="s">
         <v>148</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M158" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
-      <c r="A135">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>6</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B162" t="s">
         <v>149</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M162" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
-      <c r="B136" t="s">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
-      <c r="A139">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>7</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B167" t="s">
         <v>152</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M167" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5548,21 +5910,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="10"/>
-    <col min="2" max="4" width="8.7109375" style="16"/>
-    <col min="5" max="5" width="59.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="71.85546875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="8.6640625" style="10"/>
+    <col min="2" max="4" width="8.6640625" style="16"/>
+    <col min="5" max="5" width="59.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="71.83203125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="20">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>173</v>
       </c>
@@ -5579,13 +5941,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1">
+    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="32">
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>179</v>
       </c>
@@ -5599,7 +5961,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32">
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C4" s="16">
         <v>2</v>
       </c>
@@ -5613,7 +5975,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="16">
         <v>3</v>
       </c>
@@ -5627,7 +5989,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48">
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.25">
       <c r="C6" s="16">
         <v>4</v>
       </c>
@@ -5641,7 +6003,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C7" s="16">
         <v>5</v>
       </c>
@@ -5655,7 +6017,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="16">
         <v>6</v>
       </c>
@@ -5669,7 +6031,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="16">
         <v>7</v>
       </c>
@@ -5680,7 +6042,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
         <v>8</v>
       </c>
@@ -5691,7 +6053,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
         <v>9</v>
       </c>
@@ -5705,7 +6067,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
         <v>10</v>
       </c>
@@ -5719,7 +6081,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21">
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <v>11</v>
       </c>
@@ -5733,7 +6095,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="16">
         <v>12</v>
       </c>
@@ -5747,7 +6109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="16">
         <v>13</v>
       </c>
@@ -5761,7 +6123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="16">
         <v>14</v>
       </c>
@@ -5772,7 +6134,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="16">
         <v>15</v>
       </c>
@@ -5786,7 +6148,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>16</v>
       </c>
@@ -5798,7 +6160,7 @@
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="16">
         <v>17</v>
       </c>
@@ -5812,7 +6174,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.25">
       <c r="C20" s="16">
         <v>18</v>
       </c>
@@ -5826,7 +6188,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="C21" s="16">
         <v>19</v>
       </c>
@@ -5840,7 +6202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="C22" s="20">
         <v>20</v>
@@ -5855,7 +6217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>213</v>
       </c>
@@ -5872,7 +6234,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="16">
         <v>22</v>
       </c>
@@ -5887,7 +6249,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="32">
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.25">
       <c r="C25" s="16">
         <v>23</v>
       </c>
@@ -5902,7 +6264,7 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="26" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="C26" s="20">
         <v>24</v>
@@ -5917,7 +6279,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>221</v>
       </c>
@@ -5934,7 +6296,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33">
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.25">
       <c r="C28" s="16">
         <v>26</v>
       </c>
@@ -5949,7 +6311,7 @@
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="16">
         <v>27</v>
       </c>
@@ -5964,7 +6326,7 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="16">
         <v>28</v>
       </c>
@@ -5979,7 +6341,7 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="32">
+    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.25">
       <c r="C31" s="16">
         <v>29</v>
       </c>
@@ -5990,7 +6352,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="C32" s="20">
         <v>30</v>
@@ -6005,7 +6367,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="49">
+    <row r="33" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>230</v>
       </c>
@@ -6022,7 +6384,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="C34" s="20">
         <v>32</v>
@@ -6034,7 +6396,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="33">
+    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>234</v>
       </c>
@@ -6051,7 +6413,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="16">
         <v>34</v>
       </c>
@@ -6062,7 +6424,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="32">
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C37" s="16">
         <v>35</v>
       </c>
@@ -6073,7 +6435,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" s="16">
         <v>36</v>
       </c>
@@ -6087,7 +6449,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="16">
         <v>37</v>
       </c>
@@ -6101,7 +6463,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C40" s="16">
         <v>38</v>
       </c>
@@ -6112,7 +6474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" s="16">
         <v>39</v>
       </c>
@@ -6126,7 +6488,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" s="16">
         <v>40</v>
       </c>
@@ -6137,7 +6499,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="16">
         <v>41</v>
       </c>
@@ -6151,7 +6513,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21">
+    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="C44" s="16">
         <v>42</v>
       </c>
@@ -6165,7 +6527,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="45" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="C45" s="20">
         <v>43</v>
@@ -6180,7 +6542,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>250</v>
       </c>
@@ -6197,7 +6559,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21">
+    <row r="47" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="C47" s="16">
         <v>45</v>
       </c>
@@ -6211,7 +6573,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" s="16">
         <v>46</v>
       </c>
@@ -6225,7 +6587,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="16">
         <v>47</v>
       </c>
@@ -6239,7 +6601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="16">
         <v>48</v>
       </c>
@@ -6253,7 +6615,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="21">
+    <row r="51" spans="3:6" ht="24" x14ac:dyDescent="0.25">
       <c r="C51" s="16">
         <v>49</v>
       </c>
@@ -6267,7 +6629,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="16">
         <v>50</v>
       </c>
@@ -6278,7 +6640,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="16">
         <v>51</v>
       </c>
@@ -6289,7 +6651,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="16">
         <v>52</v>
       </c>
@@ -6300,7 +6662,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="32">
+    <row r="55" spans="3:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C55" s="16">
         <v>53</v>
       </c>
@@ -6311,7 +6673,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="32">
+    <row r="56" spans="3:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C56" s="16">
         <v>54</v>
       </c>
@@ -6322,7 +6684,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="32">
+    <row r="57" spans="3:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C57" s="16">
         <v>55</v>
       </c>
@@ -6333,7 +6695,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="48">
+    <row r="58" spans="3:6" ht="85" x14ac:dyDescent="0.25">
       <c r="C58" s="16">
         <v>56</v>
       </c>
@@ -6344,7 +6706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="32">
+    <row r="59" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C59" s="16">
         <v>57</v>
       </c>
@@ -6355,7 +6717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="16">
         <v>58</v>
       </c>
@@ -6366,7 +6728,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="32">
+    <row r="61" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C61" s="16">
         <v>59</v>
       </c>
@@ -6377,7 +6739,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="16">
         <v>60</v>
       </c>
@@ -6388,7 +6750,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="16">
         <v>61</v>
       </c>
@@ -6402,7 +6764,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="32">
+    <row r="64" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C64" s="16">
         <v>62</v>
       </c>
@@ -6413,7 +6775,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="3:6">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="16">
         <v>63</v>
       </c>
@@ -6424,7 +6786,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="32">
+    <row r="66" spans="3:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C66" s="16">
         <v>64</v>
       </c>
@@ -6435,7 +6797,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="3:6">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="16">
         <v>65</v>
       </c>
@@ -6446,7 +6808,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="3:6">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="16">
         <v>66</v>
       </c>
@@ -6460,7 +6822,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="3:6">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="16">
         <v>67</v>
       </c>
@@ -6471,7 +6833,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="3:6">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="16">
         <v>68</v>
       </c>
@@ -6482,7 +6844,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="71" spans="3:6">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="16">
         <v>69</v>
       </c>
@@ -6493,7 +6855,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="32">
+    <row r="72" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C72" s="16">
         <v>70</v>
       </c>
@@ -6504,7 +6866,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="3:6">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="16">
         <v>71</v>
       </c>
@@ -6515,7 +6877,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="3:6">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="16">
         <v>72</v>
       </c>
@@ -6529,7 +6891,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="16">
         <v>73</v>
       </c>
@@ -6543,22 +6905,22 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="3:6">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E77" s="18"/>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E78" s="18"/>
     </row>
-    <row r="79" spans="3:6">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E79" s="18"/>
     </row>
-    <row r="80" spans="3:6">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="16">
         <v>74</v>
       </c>
@@ -6572,25 +6934,25 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E83" s="18"/>
     </row>
-    <row r="84" spans="3:6">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E84" s="18"/>
     </row>
-    <row r="85" spans="3:6">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E85" s="18"/>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E86" s="18"/>
     </row>
-    <row r="87" spans="3:6">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E87" s="18"/>
     </row>
-    <row r="88" spans="3:6">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="16">
         <v>75</v>
       </c>
@@ -6601,7 +6963,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="80">
+    <row r="89" spans="3:6" ht="119" x14ac:dyDescent="0.25">
       <c r="C89" s="16">
         <v>76</v>
       </c>
@@ -6612,7 +6974,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="32">
+    <row r="90" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C90" s="16">
         <v>77</v>
       </c>
@@ -6623,7 +6985,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="3:6">
+    <row r="91" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C91" s="16">
         <v>78</v>
       </c>
@@ -6634,7 +6996,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="3:6">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="16">
         <v>79</v>
       </c>
@@ -6648,7 +7010,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="3:6">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="16">
         <v>80</v>
       </c>
@@ -6659,7 +7021,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="3:6">
+    <row r="94" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C94" s="16">
         <v>81</v>
       </c>
@@ -6670,7 +7032,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="3:6">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="16">
         <v>82</v>
       </c>
@@ -6681,7 +7043,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="3:6">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="16">
         <v>83</v>
       </c>
@@ -6695,7 +7057,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" s="16">
         <v>84</v>
       </c>
@@ -6706,7 +7068,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" s="16">
         <v>85</v>
       </c>
@@ -6720,7 +7082,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" s="16">
         <v>86</v>
       </c>
@@ -6732,7 +7094,7 @@
       </c>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" s="16">
         <v>87</v>
       </c>
@@ -6744,7 +7106,7 @@
       </c>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" s="16">
         <v>89</v>
       </c>
@@ -6756,7 +7118,7 @@
       </c>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" s="16">
         <v>90</v>
       </c>
@@ -6768,7 +7130,7 @@
       </c>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" ht="32">
+    <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C103" s="16">
         <v>91</v>
       </c>
@@ -6782,7 +7144,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" s="16">
         <v>92</v>
       </c>
@@ -6796,7 +7158,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="105" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="C105" s="20">
         <v>93</v>
@@ -6811,13 +7173,13 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="14" customFormat="1">
+    <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>311</v>
       </c>
       <c r="E106" s="15"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="16" t="s">
         <v>312</v>
       </c>
@@ -6834,7 +7196,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="32">
+    <row r="108" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C108" s="16">
         <v>95</v>
       </c>
@@ -6845,7 +7207,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" s="16">
         <v>96</v>
       </c>
@@ -6859,7 +7221,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" s="16">
         <v>97</v>
       </c>
@@ -6870,7 +7232,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="32">
+    <row r="111" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="C111" s="16">
         <v>98</v>
       </c>
@@ -6881,7 +7243,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="32">
+    <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C112" s="16">
         <v>99</v>
       </c>
@@ -6895,7 +7257,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="32">
+    <row r="113" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C113" s="16">
         <v>100</v>
       </c>
@@ -6909,7 +7271,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="3:6">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="16">
         <v>101</v>
       </c>
@@ -6920,7 +7282,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="3:6" ht="32">
+    <row r="115" spans="3:6" ht="34" x14ac:dyDescent="0.25">
       <c r="C115" s="16">
         <v>102</v>
       </c>
@@ -6934,7 +7296,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="3:6">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="16">
         <v>103</v>
       </c>
@@ -6945,7 +7307,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="3:6">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="16">
         <v>104</v>
       </c>
@@ -6959,7 +7321,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="3:6">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="16">
         <v>105</v>
       </c>
@@ -6970,7 +7332,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="3:6">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="16">
         <v>106</v>
       </c>
@@ -6984,7 +7346,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="124" spans="3:6">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="16">
         <v>107</v>
       </c>
@@ -6998,7 +7360,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" s="16">
         <v>108</v>
       </c>
@@ -7012,7 +7374,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
         <v>335</v>
       </c>
@@ -7026,7 +7388,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C133" s="16">
         <v>110</v>
       </c>
@@ -7037,7 +7399,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C134" s="16">
         <v>111</v>
       </c>
@@ -7051,7 +7413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C135" s="16">
         <v>112</v>
       </c>
@@ -7062,7 +7424,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="136" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19"/>
       <c r="C136" s="20">
         <v>113</v>
@@ -7074,7 +7436,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="32">
+    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="B137" s="16" t="s">
         <v>341</v>
       </c>
@@ -7088,7 +7450,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C138" s="16">
         <v>115</v>
       </c>
@@ -7099,17 +7461,17 @@
         <v>343</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="139" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
       <c r="E139" s="21"/>
     </row>
-    <row r="140" spans="1:6" s="14" customFormat="1">
+    <row r="140" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>344</v>
       </c>
       <c r="E140" s="15"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C141" s="16">
         <v>116</v>
       </c>
@@ -7120,7 +7482,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C142" s="16">
         <v>117</v>
       </c>
@@ -7131,7 +7493,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C146" s="16">
         <v>118</v>
       </c>
@@ -7142,7 +7504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="147" spans="1:5" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
       <c r="C147" s="20">
         <v>119</v>
@@ -7154,13 +7516,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="14" customFormat="1">
+    <row r="148" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>349</v>
       </c>
       <c r="E148" s="15"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" s="16" t="s">
         <v>350</v>
       </c>
@@ -7174,7 +7536,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C150" s="16">
         <v>121</v>
       </c>
@@ -7185,7 +7547,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="34" x14ac:dyDescent="0.25">
       <c r="C151" s="16">
         <v>122</v>
       </c>
@@ -7196,17 +7558,17 @@
         <v>353</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E152" s="17" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E153" s="17" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="34" x14ac:dyDescent="0.25">
       <c r="C154" s="16">
         <v>123</v>
       </c>
@@ -7217,7 +7579,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="32">
+    <row r="155" spans="1:5" ht="34" x14ac:dyDescent="0.25">
       <c r="C155" s="16">
         <v>124</v>
       </c>
@@ -7228,7 +7590,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C156" s="16">
         <v>125</v>
       </c>
@@ -7239,7 +7601,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C157" s="16">
         <v>126</v>
       </c>
@@ -7250,7 +7612,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C158" s="16">
         <v>127</v>
       </c>
@@ -7261,7 +7623,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C159" s="16">
         <v>128</v>
       </c>
@@ -7272,12 +7634,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B160" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="34" x14ac:dyDescent="0.25">
       <c r="C161" s="16">
         <v>129</v>
       </c>
@@ -7288,7 +7650,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="23" customFormat="1">
+    <row r="162" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="22"/>
       <c r="E162" s="24"/>
     </row>
@@ -7296,10 +7658,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>